--- a/data/aaa2.xlsx
+++ b/data/aaa2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ExcelからXSL-FOへの変換テスト</t>
     <rPh sb="15" eb="17">
@@ -70,6 +70,47 @@
   </si>
   <si>
     <t>12345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HAIR</t>
+  </si>
+  <si>
+    <t>DOTTED</t>
+  </si>
+  <si>
+    <t>DASH_DOT_DOT</t>
+  </si>
+  <si>
+    <t>DASH_DOT</t>
+  </si>
+  <si>
+    <t>DASHED</t>
+  </si>
+  <si>
+    <t>THIN</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>THICK</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>MEDIUM_DASHED</t>
+  </si>
+  <si>
+    <t>MEDIUM_DASH_DOT</t>
+  </si>
+  <si>
+    <t>MEDIUM_DASH_DOT_DOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLANTED_DASH_DOT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -132,19 +173,345 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -157,12 +524,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -443,33 +836,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -477,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,24 +878,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="96" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>

--- a/data/aaa2.xlsx
+++ b/data/aaa2.xlsx
@@ -527,9 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -556,6 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -571,6 +571,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4057650" y="1266825"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -850,14 +910,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -890,7 +950,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -898,105 +958,105 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="30"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="30"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="30"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -1006,6 +1066,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/aaa2.xlsx
+++ b/data/aaa2.xlsx
@@ -612,6 +612,61 @@
         <a:xfrm>
           <a:off x="4057650" y="1266825"/>
           <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1095374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3648074" y="2314574"/>
+          <a:ext cx="1076325" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,7 +954,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/data/aaa2.xlsx
+++ b/data/aaa2.xlsx
@@ -639,9 +639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1095374</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,7 +666,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3648074" y="2314574"/>
-          <a:ext cx="1076325" cy="1076325"/>
+          <a:ext cx="1466851" cy="1466851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/data/aaa2.xlsx
+++ b/data/aaa2.xlsx
@@ -954,7 +954,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1120,7 +1120,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/data/aaa2.xlsx
+++ b/data/aaa2.xlsx
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1120,7 +1120,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="7" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
